--- a/input_sample/sample1.xlsx
+++ b/input_sample/sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D51AA87-BAA2-4908-9473-A9E3FBFBE624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E37DBB-AB38-42A7-9A00-D27E4393876E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="4455" windowWidth="23490" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5700" yWindow="7290" windowWidth="23490" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="30">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -168,6 +168,14 @@
   </si>
   <si>
     <t>あ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dさん</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -782,10 +790,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1064A89-B6E7-4398-BE09-73C544D68297}">
-  <dimension ref="A1:T22"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1014,6 +1022,17 @@
       </c>
       <c r="P22" s="1">
         <v>45700</v>
+      </c>
+    </row>
+    <row r="23" spans="14:20">
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" s="1">
+        <v>45719</v>
       </c>
     </row>
   </sheetData>

--- a/input_sample/sample1.xlsx
+++ b/input_sample/sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00E37DBB-AB38-42A7-9A00-D27E4393876E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4C4919-062D-4FCD-904C-C5F6C6ADA33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="7290" windowWidth="23490" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7365" yWindow="600" windowWidth="23490" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="31">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -176,6 +176,10 @@
   </si>
   <si>
     <t>Dさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Suspend</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -790,10 +794,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1064A89-B6E7-4398-BE09-73C544D68297}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="P24" sqref="P24"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -990,7 +994,7 @@
     </row>
     <row r="20" spans="14:20">
       <c r="N20" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="O20" t="s">
         <v>23</v>
@@ -1032,6 +1036,28 @@
         <v>29</v>
       </c>
       <c r="P23" s="1">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="24" spans="14:20">
+      <c r="N24" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" s="1">
+        <v>45719</v>
+      </c>
+    </row>
+    <row r="25" spans="14:20">
+      <c r="N25" t="s">
+        <v>7</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" s="1">
         <v>45719</v>
       </c>
     </row>

--- a/input_sample/sample1.xlsx
+++ b/input_sample/sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4C4919-062D-4FCD-904C-C5F6C6ADA33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7CA046-C4AF-4C54-ABBA-D58EFB20DB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7365" yWindow="600" windowWidth="23490" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7410" yWindow="23655" windowWidth="23490" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="33">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -180,6 +180,14 @@
   </si>
   <si>
     <t>Suspend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Eさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pass</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -794,10 +802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1064A89-B6E7-4398-BE09-73C544D68297}">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1059,6 +1067,17 @@
       </c>
       <c r="P25" s="1">
         <v>45719</v>
+      </c>
+    </row>
+    <row r="26" spans="14:20">
+      <c r="N26" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" t="s">
+        <v>31</v>
+      </c>
+      <c r="P26" s="1">
+        <v>45725</v>
       </c>
     </row>
   </sheetData>

--- a/input_sample/sample1.xlsx
+++ b/input_sample/sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E7CA046-C4AF-4C54-ABBA-D58EFB20DB12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD08F8-F744-417F-B3B6-98170AA66704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7410" yWindow="23655" windowWidth="23490" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10380" yWindow="5160" windowWidth="23490" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="33">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -802,10 +802,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1064A89-B6E7-4398-BE09-73C544D68297}">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N27" sqref="N27"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -977,7 +977,7 @@
     </row>
     <row r="18" spans="14:20">
       <c r="N18" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O18" t="s">
         <v>23</v>
@@ -1077,6 +1077,28 @@
         <v>31</v>
       </c>
       <c r="P26" s="1">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="27" spans="14:20">
+      <c r="N27" t="s">
+        <v>9</v>
+      </c>
+      <c r="O27" t="s">
+        <v>31</v>
+      </c>
+      <c r="P27" s="1">
+        <v>45725</v>
+      </c>
+    </row>
+    <row r="28" spans="14:20">
+      <c r="N28" t="s">
+        <v>9</v>
+      </c>
+      <c r="O28" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="1">
         <v>45725</v>
       </c>
     </row>

--- a/input_sample/sample1.xlsx
+++ b/input_sample/sample1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD08F8-F744-417F-B3B6-98170AA66704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD63331-0042-41C5-A245-2118269AB5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10380" yWindow="5160" windowWidth="23490" windowHeight="13785" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="33">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -802,11 +802,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1064A89-B6E7-4398-BE09-73C544D68297}">
-  <dimension ref="A1:T28"/>
+  <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -942,6 +940,9 @@
       <c r="A14">
         <v>4</v>
       </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
       <c r="N14" t="s">
         <v>22</v>
       </c>
@@ -952,6 +953,9 @@
       <c r="A15">
         <v>5</v>
       </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
       <c r="N15" t="s">
         <v>22</v>
       </c>
@@ -962,20 +966,29 @@
       <c r="A16">
         <v>6</v>
       </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
       <c r="N16" t="s">
         <v>22</v>
       </c>
       <c r="P16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="14:20">
+    <row r="17" spans="11:20">
+      <c r="K17" t="s">
+        <v>27</v>
+      </c>
       <c r="N17" t="s">
         <v>22</v>
       </c>
       <c r="P17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="14:20">
+    <row r="18" spans="11:20">
+      <c r="K18" t="s">
+        <v>27</v>
+      </c>
       <c r="N18" t="s">
         <v>11</v>
       </c>
@@ -986,7 +999,10 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="19" spans="14:20">
+    <row r="19" spans="11:20">
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
       <c r="N19" t="s">
         <v>7</v>
       </c>
@@ -1000,7 +1016,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="14:20">
+    <row r="20" spans="11:20">
+      <c r="K20" t="s">
+        <v>27</v>
+      </c>
       <c r="N20" t="s">
         <v>22</v>
       </c>
@@ -1014,7 +1033,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="14:20">
+    <row r="21" spans="11:20">
+      <c r="K21" t="s">
+        <v>27</v>
+      </c>
       <c r="N21" t="s">
         <v>7</v>
       </c>
@@ -1025,7 +1047,10 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="22" spans="14:20">
+    <row r="22" spans="11:20">
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
       <c r="N22" t="s">
         <v>7</v>
       </c>
@@ -1036,7 +1061,10 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="23" spans="14:20">
+    <row r="23" spans="11:20">
+      <c r="K23" t="s">
+        <v>27</v>
+      </c>
       <c r="N23" t="s">
         <v>28</v>
       </c>
@@ -1047,7 +1075,10 @@
         <v>45719</v>
       </c>
     </row>
-    <row r="24" spans="14:20">
+    <row r="24" spans="11:20">
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
       <c r="N24" t="s">
         <v>30</v>
       </c>
@@ -1058,7 +1089,10 @@
         <v>45719</v>
       </c>
     </row>
-    <row r="25" spans="14:20">
+    <row r="25" spans="11:20">
+      <c r="K25" t="s">
+        <v>27</v>
+      </c>
       <c r="N25" t="s">
         <v>7</v>
       </c>
@@ -1069,7 +1103,10 @@
         <v>45719</v>
       </c>
     </row>
-    <row r="26" spans="14:20">
+    <row r="26" spans="11:20">
+      <c r="K26" t="s">
+        <v>27</v>
+      </c>
       <c r="N26" t="s">
         <v>32</v>
       </c>
@@ -1080,7 +1117,10 @@
         <v>45725</v>
       </c>
     </row>
-    <row r="27" spans="14:20">
+    <row r="27" spans="11:20">
+      <c r="K27" t="s">
+        <v>27</v>
+      </c>
       <c r="N27" t="s">
         <v>9</v>
       </c>
@@ -1091,7 +1131,10 @@
         <v>45725</v>
       </c>
     </row>
-    <row r="28" spans="14:20">
+    <row r="28" spans="11:20">
+      <c r="K28" t="s">
+        <v>27</v>
+      </c>
       <c r="N28" t="s">
         <v>9</v>
       </c>
@@ -1100,6 +1143,36 @@
       </c>
       <c r="P28" s="1">
         <v>45725</v>
+      </c>
+    </row>
+    <row r="29" spans="11:20">
+      <c r="K29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="11:20">
+      <c r="K30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="11:20">
+      <c r="K31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="11:20">
+      <c r="K32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11">
+      <c r="K33" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11">
+      <c r="K34" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/input_sample/sample1.xlsx
+++ b/input_sample/sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD63331-0042-41C5-A245-2118269AB5BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF9CB23-FBE8-4843-8C7F-5C307F86FBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="34">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -188,6 +188,13 @@
   </si>
   <si>
     <t>Pass</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象外</t>
+    <rPh sb="0" eb="3">
+      <t>タイショウガイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -804,7 +811,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1064A89-B6E7-4398-BE09-73C544D68297}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1149,15 +1158,24 @@
       <c r="K29" t="s">
         <v>27</v>
       </c>
+      <c r="N29" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="11:20">
       <c r="K30" t="s">
         <v>27</v>
       </c>
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="11:20">
       <c r="K31" t="s">
         <v>27</v>
+      </c>
+      <c r="N31" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="11:20">

--- a/input_sample/sample1.xlsx
+++ b/input_sample/sample1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF9CB23-FBE8-4843-8C7F-5C307F86FBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B4AF2-A0FF-4338-8DDD-F0606D32C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="34">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1:S1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10:L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -572,6 +572,9 @@
       <c r="J10" t="s">
         <v>21</v>
       </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
       <c r="O10" t="s">
         <v>3</v>
       </c>
@@ -595,6 +598,9 @@
       <c r="A11">
         <v>1</v>
       </c>
+      <c r="L11" t="s">
+        <v>27</v>
+      </c>
       <c r="O11" t="s">
         <v>7</v>
       </c>
@@ -618,6 +624,9 @@
       <c r="A12">
         <v>2</v>
       </c>
+      <c r="L12" t="s">
+        <v>27</v>
+      </c>
       <c r="O12" t="s">
         <v>7</v>
       </c>
@@ -640,6 +649,9 @@
     <row r="13" spans="1:21">
       <c r="A13">
         <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>27</v>
       </c>
       <c r="O13" t="s">
         <v>9</v>
@@ -811,8 +823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1064A89-B6E7-4398-BE09-73C544D68297}">
   <dimension ref="A1:T34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/input_sample/sample1.xlsx
+++ b/input_sample/sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B4AF2-A0FF-4338-8DDD-F0606D32C065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E8A8F8-2BE1-4194-867F-261F69FC7F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="38">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -194,6 +194,42 @@
     <t>対象外</t>
     <rPh sb="0" eb="3">
       <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境a
+abc</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>環境b
+cde</t>
+    <rPh sb="0" eb="2">
+      <t>カンキョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施結果1</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施結果2</t>
+    <rPh sb="0" eb="2">
+      <t>ジッシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -238,9 +274,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -524,7 +563,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10:L13"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -533,13 +572,17 @@
     <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="O1" t="s">
-        <v>24</v>
-      </c>
-      <c r="S1" t="s">
-        <v>25</v>
-      </c>
+    <row r="1" spans="1:21" ht="37.5" customHeight="1">
+      <c r="O1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="S1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" t="s">
@@ -576,7 +619,7 @@
         <v>26</v>
       </c>
       <c r="O10" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
         <v>1</v>
@@ -585,7 +628,7 @@
         <v>2</v>
       </c>
       <c r="S10" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="T10" t="s">
         <v>5</v>
@@ -814,6 +857,10 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="S1:U1"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/input_sample/sample1.xlsx
+++ b/input_sample/sample1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E8A8F8-2BE1-4194-867F-261F69FC7F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04EEC62-DF26-4EA1-9D50-FA4E77123C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="39">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -230,6 +230,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施日</t>
+    <rPh sb="0" eb="3">
+      <t>ジッシビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -563,7 +570,7 @@
   <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -634,7 +641,7 @@
         <v>5</v>
       </c>
       <c r="U10" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:21">

--- a/input_sample/sample1.xlsx
+++ b/input_sample/sample1.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Script\TestProgressRecord\input_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04EEC62-DF26-4EA1-9D50-FA4E77123C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D6B9A0-2C1C-4265-90C6-85EE37446182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10365" yWindow="6375" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="8100" windowWidth="20775" windowHeight="13005" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テスト項目1" sheetId="1" r:id="rId1"/>
-    <sheet name="テスト項目2" sheetId="2" r:id="rId2"/>
+    <sheet name="テスト2" sheetId="2" r:id="rId2"/>
     <sheet name="dummy" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="42">
   <si>
     <t>#</t>
     <phoneticPr fontId="1"/>
@@ -237,6 +237,27 @@
     <t>実施日</t>
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>期待結果</t>
+    <rPh sb="0" eb="2">
+      <t>キタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象外</t>
+    <rPh sb="0" eb="3">
+      <t>タイショウガイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -569,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -726,6 +747,9 @@
       <c r="A14">
         <v>4</v>
       </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
       <c r="P14" t="s">
         <v>8</v>
       </c>
@@ -746,6 +770,9 @@
       <c r="A15">
         <v>5</v>
       </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
       <c r="O15" t="s">
         <v>10</v>
       </c>
@@ -769,6 +796,9 @@
       <c r="A16">
         <v>6</v>
       </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
       <c r="O16" t="s">
         <v>7</v>
       </c>
@@ -788,7 +818,10 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="17" spans="15:21">
+    <row r="17" spans="12:21">
+      <c r="L17" t="s">
+        <v>27</v>
+      </c>
       <c r="O17" t="s">
         <v>11</v>
       </c>
@@ -808,7 +841,10 @@
         <v>45700</v>
       </c>
     </row>
-    <row r="18" spans="15:21">
+    <row r="18" spans="12:21">
+      <c r="L18" t="s">
+        <v>27</v>
+      </c>
       <c r="O18" t="s">
         <v>7</v>
       </c>
@@ -819,7 +855,10 @@
         <v>45701</v>
       </c>
     </row>
-    <row r="19" spans="15:21">
+    <row r="19" spans="12:21">
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
       <c r="O19" t="s">
         <v>7</v>
       </c>
@@ -830,7 +869,10 @@
         <v>45701</v>
       </c>
     </row>
-    <row r="20" spans="15:21">
+    <row r="20" spans="12:21">
+      <c r="L20" t="s">
+        <v>27</v>
+      </c>
       <c r="O20" t="s">
         <v>7</v>
       </c>
@@ -841,7 +883,10 @@
         <v>45701</v>
       </c>
     </row>
-    <row r="21" spans="15:21">
+    <row r="21" spans="12:21">
+      <c r="L21" t="s">
+        <v>27</v>
+      </c>
       <c r="O21" t="s">
         <v>7</v>
       </c>
@@ -852,7 +897,10 @@
         <v>45701</v>
       </c>
     </row>
-    <row r="22" spans="15:21">
+    <row r="22" spans="12:21">
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
       <c r="O22" t="s">
         <v>7</v>
       </c>
@@ -878,7 +926,7 @@
   <dimension ref="A1:T34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10:K13"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1269,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AB07ADF-69FC-48F2-BD88-0491963CDCE9}">
   <dimension ref="A10:U22"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1310,6 +1358,9 @@
       <c r="J10" t="s">
         <v>21</v>
       </c>
+      <c r="K10" t="s">
+        <v>39</v>
+      </c>
       <c r="O10" t="s">
         <v>3</v>
       </c>
@@ -1333,6 +1384,9 @@
       <c r="A11">
         <v>1</v>
       </c>
+      <c r="K11" t="s">
+        <v>40</v>
+      </c>
       <c r="O11" t="s">
         <v>22</v>
       </c>
@@ -1351,6 +1405,9 @@
       <c r="A12">
         <v>2</v>
       </c>
+      <c r="K12" t="s">
+        <v>40</v>
+      </c>
       <c r="O12" t="s">
         <v>22</v>
       </c>
@@ -1369,6 +1426,9 @@
       <c r="A13">
         <v>3</v>
       </c>
+      <c r="K13" t="s">
+        <v>40</v>
+      </c>
       <c r="O13" t="s">
         <v>22</v>
       </c>
@@ -1387,40 +1447,67 @@
       <c r="A14">
         <v>4</v>
       </c>
+      <c r="K14" t="s">
+        <v>40</v>
+      </c>
       <c r="O14" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="1"/>
+      <c r="S14" t="s">
+        <v>41</v>
+      </c>
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
         <v>5</v>
       </c>
+      <c r="K15" t="s">
+        <v>40</v>
+      </c>
       <c r="O15" t="s">
         <v>22</v>
       </c>
       <c r="Q15" s="1"/>
+      <c r="S15" t="s">
+        <v>41</v>
+      </c>
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
         <v>6</v>
       </c>
+      <c r="K16" t="s">
+        <v>40</v>
+      </c>
       <c r="O16" t="s">
         <v>22</v>
       </c>
       <c r="Q16" s="1"/>
+      <c r="S16" t="s">
+        <v>41</v>
+      </c>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="15:21">
+    <row r="17" spans="11:21">
+      <c r="K17" t="s">
+        <v>40</v>
+      </c>
       <c r="O17" t="s">
         <v>22</v>
       </c>
       <c r="Q17" s="1"/>
+      <c r="S17" t="s">
+        <v>41</v>
+      </c>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="15:21">
+    <row r="18" spans="11:21">
+      <c r="K18" t="s">
+        <v>40</v>
+      </c>
       <c r="O18" t="s">
         <v>7</v>
       </c>
@@ -1430,8 +1517,14 @@
       <c r="Q18" s="1">
         <v>45700</v>
       </c>
-    </row>
-    <row r="19" spans="15:21">
+      <c r="S18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="11:21">
+      <c r="K19" t="s">
+        <v>40</v>
+      </c>
       <c r="O19" t="s">
         <v>7</v>
       </c>
@@ -1445,7 +1538,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="15:21">
+    <row r="20" spans="11:21">
+      <c r="K20" t="s">
+        <v>40</v>
+      </c>
       <c r="O20" t="s">
         <v>7</v>
       </c>
@@ -1459,7 +1555,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="15:21">
+    <row r="21" spans="11:21">
+      <c r="K21" t="s">
+        <v>40</v>
+      </c>
       <c r="O21" t="s">
         <v>7</v>
       </c>
@@ -1469,8 +1568,14 @@
       <c r="Q21" s="1">
         <v>45700</v>
       </c>
-    </row>
-    <row r="22" spans="15:21">
+      <c r="S21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="11:21">
+      <c r="K22" t="s">
+        <v>40</v>
+      </c>
       <c r="O22" t="s">
         <v>7</v>
       </c>
@@ -1479,6 +1584,9 @@
       </c>
       <c r="Q22" s="1">
         <v>45700</v>
+      </c>
+      <c r="S22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
